--- a/rfe_benchmark_svr_av.xlsx
+++ b/rfe_benchmark_svr_av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\honours-project-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F20E089-13DA-4F82-BA91-D285E7634C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B020245-C4C8-4508-9A16-3A6F0CE3051B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rfe_benchmark_svr_av" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -47,7 +47,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -55,7 +55,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -64,7 +64,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -73,7 +73,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -82,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -90,7 +90,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -98,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +114,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -132,7 +132,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -140,7 +140,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -149,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -157,7 +157,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -166,7 +166,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -175,7 +175,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -183,14 +183,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -697,7 +697,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>10-Folds SVR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -720,7 +775,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -731,19 +788,1641 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="28575" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>rfe_benchmark_svr_av!$B$2:$B$261</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="260"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rfe_benchmark_svr_av!$C$2:$C$261</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="260"/>
+                <c:pt idx="0">
+                  <c:v>6.5357107999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11275447800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21408628800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.133933997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17617416999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29873812500000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23488489700000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43439230200000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50171958100000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53531624099999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47323100299999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50417928499999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51839702300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50400441500000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51814447900000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.491467233</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51427096999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47739611500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51527579400000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49001255799999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52524569499999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53071385699999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52258817400000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52266250000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.50837743099999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56646891200000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55800288499999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50554411200000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50238944200000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51401481699999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48415857699999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55269009000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53451084000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57987815099999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.497127339</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5957808</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.56988508199999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52352296399999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56264172800000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53537397399999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54262515899999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.55120831199999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.59326658399999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.59518302099999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.49603923799999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56228798000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.59223937199999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48770309299999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53022873299999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63521101800000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.59118291199999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51663832099999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.57898512199999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57359196000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54930781900000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54956180600000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57771036499999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.54903639699999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50990125600000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55130232800000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57724037500000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54012315300000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.57056402100000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57891390600000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.40115408499999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.43343390199999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.62912017799999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.58773724199999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55924680000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.59179755899999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55604672399999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58388418799999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58834499900000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.55663453200000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.57062929399999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.57375858800000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.54981329800000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.602831275</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.631816092</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58592200400000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54448920000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.54376417399999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46200661900000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57310195600000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.45417681100000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55554467200000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.54439047500000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.61541536600000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58002798899999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58485334099999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.52565497900000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.577445188</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.63525483800000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.56292836599999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.500015879</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.59209594300000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.60489499300000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.61967644200000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.57589331700000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.508390907</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.56949838399999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.59532742199999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.59268148499999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.58022337800000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.57024450000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.59190864399999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.57452631600000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.49574020899999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.57641400799999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.60169747900000004</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.58286598300000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.53566769199999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.43161402199999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.564150076</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.52810909699999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.60547179900000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.56203412799999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.55446887099999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.50877022199999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.62283828699999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.56875446100000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.57643805699999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.57881374600000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.51036981999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.45508011799999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.65152237700000004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.61537202099999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.58712801299999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.583194816</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.51437374800000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.48411596400000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.56221737100000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.60225497299999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.62181207199999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.59796786199999996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.561362531</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.61334843699999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.58524346599999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.470810179</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.56982384600000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.50964691699999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.59376689999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.61048628800000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.63672908699999997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.59511296300000005</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.58978816199999995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.58217217700000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.59786812499999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.54129445099999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.53014403399999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.53999489499999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.577597425</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.61326478900000003</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.57469514399999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.53207025500000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.60949319800000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.54581102500000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.54528364399999996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.46562028799999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.57336591299999995</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.54839370899999995</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.57102508100000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.630994528</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.58052251899999996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.55562473999999995</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.61381575099999997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.65873400900000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.62171101900000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.552168247</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.55580528600000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.56439673000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.52644490700000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.66041619299999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.57883201399999995</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.61321725599999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.54062136199999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.651681705</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.52733487899999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.61179948200000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.60793272499999995</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.60230118099999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.59012240900000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.612213585</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.58033232700000004</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.623300564</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.504042773</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.59607954600000002</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.57827743200000004</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.61371561699999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.57871824100000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.60833981800000003</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.55242486099999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.55297970200000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.57776833000000005</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.57349935799999996</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.59556996699999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.59744636900000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.55948704800000004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.631484928</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.56476922200000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.55699127100000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.61307666900000002</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.54070991099999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.54871674800000003</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.58817458300000003</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.59375543900000005</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.59592522199999998</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.59700789899999995</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.54514736399999997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.55947880000000005</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.56783092899999998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.54573361499999995</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.58147446999999997</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.55183277500000005</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.51526645999999998</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.61406088299999995</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.56838391499999996</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.55370847099999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.61467158</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.61288647500000004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.57325033000000003</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.55868780500000004</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.58533001299999998</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.55026396099999997</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.53043372</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.59457302199999995</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.53020177999999996</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.59501776100000003</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.48684887399999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.58751549599999997</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.49782685900000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.50492208199999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.55364924699999996</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.61562675499999997</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.61700237000000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.55032242899999995</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.55265211400000003</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.58061804100000003</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.55087505699999995</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.58108311899999998</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.39946996099999998</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.55466344499999998</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.57424301899999997</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.512539631</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.485334708</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.57892222299999996</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.49732652199999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.57358352599999995</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.58099563700000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.54370568799999996</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.54450663799999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.52786590799999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.57466746199999996</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.594340486</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.56927069399999997</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.53657271600000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.46359962399999999</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.60660552499999998</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.57376634500000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.51599244600000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7AC-4B05-A75F-7BDFB942FE29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rfe_benchmark_svr_av!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="6"/>
@@ -1541,789 +3220,789 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rfe_benchmark_svr_av!$C$2:$C$261</c:f>
+              <c:f>rfe_benchmark_svr_av!$D$2:$D$261</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="260"/>
                 <c:pt idx="0">
-                  <c:v>6.5357107999999997E-2</c:v>
+                  <c:v>3.3962689999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11275447800000001</c:v>
+                  <c:v>0.117875435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21408628800000001</c:v>
+                  <c:v>0.245177427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.133933997</c:v>
+                  <c:v>0.24268520699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17617416999999999</c:v>
+                  <c:v>0.28160481700000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29873812500000002</c:v>
+                  <c:v>0.260123149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23488489700000001</c:v>
+                  <c:v>0.24571362899999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43439230200000001</c:v>
+                  <c:v>0.21096100300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50171958100000003</c:v>
+                  <c:v>0.192022948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53531624099999997</c:v>
+                  <c:v>0.20062486500000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47323100299999998</c:v>
+                  <c:v>0.24002759900000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50417928499999998</c:v>
+                  <c:v>0.21314139900000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51839702300000001</c:v>
+                  <c:v>0.25537631100000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50400441500000004</c:v>
+                  <c:v>0.247310167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51814447900000005</c:v>
+                  <c:v>0.26134323500000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.491467233</c:v>
+                  <c:v>0.248553993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.51427096999999999</c:v>
+                  <c:v>0.24300359199999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.47739611500000001</c:v>
+                  <c:v>0.265948505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51527579400000001</c:v>
+                  <c:v>0.245373441</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49001255799999999</c:v>
+                  <c:v>0.24109636200000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.52524569499999996</c:v>
+                  <c:v>0.26462301100000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53071385699999996</c:v>
+                  <c:v>0.27864615999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52258817400000002</c:v>
+                  <c:v>0.26871572399999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.52266250000000003</c:v>
+                  <c:v>0.22684842099999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.50837743099999999</c:v>
+                  <c:v>0.245444353</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.56646891200000005</c:v>
+                  <c:v>0.25221285599999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55800288499999995</c:v>
+                  <c:v>0.323430249</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50554411200000005</c:v>
+                  <c:v>0.27355780800000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.50238944200000002</c:v>
+                  <c:v>0.31140456799999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.51401481699999996</c:v>
+                  <c:v>0.19253602</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.48415857699999998</c:v>
+                  <c:v>0.31437804600000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55269009000000002</c:v>
+                  <c:v>0.27971260799999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.53451084000000004</c:v>
+                  <c:v>0.31936493599999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.57987815099999995</c:v>
+                  <c:v>0.29187097200000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.497127339</c:v>
+                  <c:v>0.26743409499999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5957808</c:v>
+                  <c:v>0.30697891700000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.56988508199999999</c:v>
+                  <c:v>0.29468812300000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.52352296399999998</c:v>
+                  <c:v>0.29522831100000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.56264172800000001</c:v>
+                  <c:v>0.322044471</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.53537397399999997</c:v>
+                  <c:v>0.31929063200000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.54262515899999997</c:v>
+                  <c:v>0.23769578299999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.55120831199999998</c:v>
+                  <c:v>0.30496607799999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.59326658399999999</c:v>
+                  <c:v>0.35671896400000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.59518302099999998</c:v>
+                  <c:v>0.26170633300000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.49603923799999999</c:v>
+                  <c:v>0.355859971</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.56228798000000002</c:v>
+                  <c:v>0.28784348300000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.59223937199999999</c:v>
+                  <c:v>0.34032003500000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.48770309299999998</c:v>
+                  <c:v>0.33189986999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.53022873299999995</c:v>
+                  <c:v>0.39913206299999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.63521101800000002</c:v>
+                  <c:v>0.35055810700000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.59118291199999995</c:v>
+                  <c:v>0.294104111</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.51663832099999996</c:v>
+                  <c:v>0.37969832599999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.57898512199999996</c:v>
+                  <c:v>0.36866469200000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.57359196000000001</c:v>
+                  <c:v>0.33629178399999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.54930781900000003</c:v>
+                  <c:v>0.348645023</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.54956180600000004</c:v>
+                  <c:v>0.34252379700000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.57771036499999995</c:v>
+                  <c:v>0.37788118900000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.54903639699999995</c:v>
+                  <c:v>0.35786102800000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.50990125600000002</c:v>
+                  <c:v>0.34489321699999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.55130232800000001</c:v>
+                  <c:v>0.33288784799999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.57724037500000003</c:v>
+                  <c:v>0.31575746700000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.54012315300000002</c:v>
+                  <c:v>0.35584352200000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.57056402100000003</c:v>
+                  <c:v>0.36980656099999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.57891390600000003</c:v>
+                  <c:v>0.29186426399999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.40115408499999999</c:v>
+                  <c:v>0.31840909299999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.43343390199999998</c:v>
+                  <c:v>0.41662390500000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.62912017799999997</c:v>
+                  <c:v>0.37071928700000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.58773724199999999</c:v>
+                  <c:v>0.35720132199999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.55924680000000004</c:v>
+                  <c:v>0.359650568</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.59179755899999997</c:v>
+                  <c:v>0.37530978500000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.55604672399999999</c:v>
+                  <c:v>0.37254094599999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.58388418799999997</c:v>
+                  <c:v>0.39040454800000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.58834499900000004</c:v>
+                  <c:v>0.37501437799999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.55663453200000002</c:v>
+                  <c:v>0.343245525</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.57062929399999995</c:v>
+                  <c:v>0.28155908800000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.57375858800000001</c:v>
+                  <c:v>0.38485173900000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.54981329800000001</c:v>
+                  <c:v>0.346633001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.602831275</c:v>
+                  <c:v>0.35892564799999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.631816092</c:v>
+                  <c:v>0.386340348</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.58592200400000005</c:v>
+                  <c:v>0.37684830200000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.54448920000000001</c:v>
+                  <c:v>0.319579801</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.54376417399999999</c:v>
+                  <c:v>0.42062624500000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.46200661900000001</c:v>
+                  <c:v>0.40790969300000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.57310195600000002</c:v>
+                  <c:v>0.39303554499999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.45417681100000001</c:v>
+                  <c:v>0.38480535199999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.55554467200000002</c:v>
+                  <c:v>0.35687141</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.54439047500000004</c:v>
+                  <c:v>0.30652355799999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.61541536600000002</c:v>
+                  <c:v>0.434386194</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.58002798899999997</c:v>
+                  <c:v>0.38078137899999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.58485334099999997</c:v>
+                  <c:v>0.28226629199999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.52565497900000002</c:v>
+                  <c:v>0.35562944699999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.577445188</c:v>
+                  <c:v>0.339884252</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.63525483800000004</c:v>
+                  <c:v>0.34763738799999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.56292836599999996</c:v>
+                  <c:v>0.30175238500000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.500015879</c:v>
+                  <c:v>0.39969833799999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.59209594300000001</c:v>
+                  <c:v>0.395584775</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.60489499300000005</c:v>
+                  <c:v>0.38238023999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.61967644200000005</c:v>
+                  <c:v>0.34152693099999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.57589331700000002</c:v>
+                  <c:v>0.313248254</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.508390907</c:v>
+                  <c:v>0.296913492</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.56949838399999997</c:v>
+                  <c:v>0.42202150900000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.59532742199999999</c:v>
+                  <c:v>0.32387027000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.59268148499999995</c:v>
+                  <c:v>0.37584202900000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.58022337800000001</c:v>
+                  <c:v>0.32290556599999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.57024450000000004</c:v>
+                  <c:v>0.33870332800000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.59190864399999998</c:v>
+                  <c:v>0.35781608300000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.57452631600000004</c:v>
+                  <c:v>0.30878049400000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.49574020899999999</c:v>
+                  <c:v>0.40179376999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.57641400799999998</c:v>
+                  <c:v>0.32673795900000002</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.60169747900000004</c:v>
+                  <c:v>0.243998826</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.58286598300000003</c:v>
+                  <c:v>0.30609624600000002</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.53566769199999997</c:v>
+                  <c:v>0.462638826</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.43161402199999999</c:v>
+                  <c:v>0.34710107899999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.564150076</c:v>
+                  <c:v>0.31322609299999998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.52810909699999997</c:v>
+                  <c:v>0.32896941699999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.60547179900000003</c:v>
+                  <c:v>0.35329412799999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.56203412799999997</c:v>
+                  <c:v>0.35746886900000002</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.55446887099999997</c:v>
+                  <c:v>0.40980725499999998</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50877022199999999</c:v>
+                  <c:v>0.34976618300000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.62283828699999999</c:v>
+                  <c:v>0.42061578500000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.56875446100000004</c:v>
+                  <c:v>0.37406131100000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.57643805699999995</c:v>
+                  <c:v>0.36780742999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.57881374600000002</c:v>
+                  <c:v>0.387843406</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.51036981999999997</c:v>
+                  <c:v>0.33811422299999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.45508011799999998</c:v>
+                  <c:v>0.36455020999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.65152237700000004</c:v>
+                  <c:v>0.373039554</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.61537202099999999</c:v>
+                  <c:v>0.34581225599999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.58712801299999995</c:v>
+                  <c:v>0.38225177599999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.583194816</c:v>
+                  <c:v>0.41722131600000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.51437374800000002</c:v>
+                  <c:v>0.33228242699999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.48411596400000001</c:v>
+                  <c:v>0.376767083</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.56221737100000002</c:v>
+                  <c:v>0.33721429600000002</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.60225497299999997</c:v>
+                  <c:v>0.44492071900000002</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.62181207199999999</c:v>
+                  <c:v>0.37892272999999999</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.59796786199999996</c:v>
+                  <c:v>0.30634312800000002</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.561362531</c:v>
+                  <c:v>0.41063297500000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.61334843699999997</c:v>
+                  <c:v>0.33203823799999999</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.58524346599999999</c:v>
+                  <c:v>0.28711980799999998</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.470810179</c:v>
+                  <c:v>0.31961004300000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.56982384600000002</c:v>
+                  <c:v>0.36559418599999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.50964691699999998</c:v>
+                  <c:v>0.34522209700000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.59376689999999999</c:v>
+                  <c:v>0.32907667899999998</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.61048628800000004</c:v>
+                  <c:v>0.39014971100000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.63672908699999997</c:v>
+                  <c:v>0.36015821999999997</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.59511296300000005</c:v>
+                  <c:v>0.43505923200000002</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.58978816199999995</c:v>
+                  <c:v>0.43225578199999998</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.58217217700000001</c:v>
+                  <c:v>0.37996819399999998</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.59786812499999997</c:v>
+                  <c:v>0.34133222000000002</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.54129445099999995</c:v>
+                  <c:v>0.37196034300000003</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.53014403399999999</c:v>
+                  <c:v>0.35670828599999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.53999489499999997</c:v>
+                  <c:v>0.38813590100000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.577597425</c:v>
+                  <c:v>0.38309122600000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.61326478900000003</c:v>
+                  <c:v>0.34601417000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.57469514399999999</c:v>
+                  <c:v>0.34976976399999998</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.53207025500000005</c:v>
+                  <c:v>0.38272380499999997</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.60949319800000001</c:v>
+                  <c:v>0.35783446499999999</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.54581102500000001</c:v>
+                  <c:v>0.33669486500000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.54528364399999996</c:v>
+                  <c:v>0.37236334999999998</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.46562028799999999</c:v>
+                  <c:v>0.453760571</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.57336591299999995</c:v>
+                  <c:v>0.40795725599999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.54839370899999995</c:v>
+                  <c:v>0.352180141</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.57102508100000005</c:v>
+                  <c:v>0.30869903799999998</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.630994528</c:v>
+                  <c:v>0.38892175600000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.58052251899999996</c:v>
+                  <c:v>0.34085704500000003</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.55562473999999995</c:v>
+                  <c:v>0.395570001</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.61381575099999997</c:v>
+                  <c:v>0.32217027799999998</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.65873400900000001</c:v>
+                  <c:v>0.43334489700000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.62171101900000003</c:v>
+                  <c:v>0.397483009</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.552168247</c:v>
+                  <c:v>0.367218814</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.55580528600000001</c:v>
+                  <c:v>0.37489155400000002</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.56439673000000001</c:v>
+                  <c:v>0.39722517899999998</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.52644490700000002</c:v>
+                  <c:v>0.333587564</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.66041619299999998</c:v>
+                  <c:v>0.36582366700000002</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.57883201399999995</c:v>
+                  <c:v>0.35346652299999998</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.61321725599999999</c:v>
+                  <c:v>0.304582666</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.54062136199999999</c:v>
+                  <c:v>0.32609943800000002</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.651681705</c:v>
+                  <c:v>0.383344554</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.52733487899999998</c:v>
+                  <c:v>0.40007884799999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.61179948200000001</c:v>
+                  <c:v>0.33834307000000002</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.60793272499999995</c:v>
+                  <c:v>0.35061352600000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.60230118099999996</c:v>
+                  <c:v>0.34189913500000002</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.59012240900000001</c:v>
+                  <c:v>0.36900266999999998</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.612213585</c:v>
+                  <c:v>0.29614870100000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.58033232700000004</c:v>
+                  <c:v>0.35638968300000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.623300564</c:v>
+                  <c:v>0.38683689500000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.504042773</c:v>
+                  <c:v>0.32610597200000002</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.59607954600000002</c:v>
+                  <c:v>0.38344613599999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.57827743200000004</c:v>
+                  <c:v>0.34679011999999998</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.61371561699999999</c:v>
+                  <c:v>0.29171259399999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.57871824100000002</c:v>
+                  <c:v>0.37054366799999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.60833981800000003</c:v>
+                  <c:v>0.30796337299999998</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.55242486099999999</c:v>
+                  <c:v>0.34859879300000002</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.55297970200000002</c:v>
+                  <c:v>0.38058134799999999</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.57776833000000005</c:v>
+                  <c:v>0.34074840299999998</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.57349935799999996</c:v>
+                  <c:v>0.2869178</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.59556996699999998</c:v>
+                  <c:v>0.32557091700000002</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.59744636900000003</c:v>
+                  <c:v>0.35808655299999997</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.55948704800000004</c:v>
+                  <c:v>0.32066937099999998</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.631484928</c:v>
+                  <c:v>0.344757168</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.56476922200000002</c:v>
+                  <c:v>0.293156898</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.55699127100000001</c:v>
+                  <c:v>0.32505195199999998</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.61307666900000002</c:v>
+                  <c:v>0.33213048000000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.54070991099999999</c:v>
+                  <c:v>0.30843922499999998</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.54871674800000003</c:v>
+                  <c:v>0.38720962199999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.58817458300000003</c:v>
+                  <c:v>0.30456230899999998</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.59375543900000005</c:v>
+                  <c:v>0.33163256800000002</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.59592522199999998</c:v>
+                  <c:v>0.35448354399999998</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.59700789899999995</c:v>
+                  <c:v>0.27269838800000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.54514736399999997</c:v>
+                  <c:v>0.329787461</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.55947880000000005</c:v>
+                  <c:v>0.41486250699999999</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.56783092899999998</c:v>
+                  <c:v>0.32880832700000001</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.54573361499999995</c:v>
+                  <c:v>0.31868703799999998</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.58147446999999997</c:v>
+                  <c:v>0.30391341300000002</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.55183277500000005</c:v>
+                  <c:v>0.33852499000000003</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.51526645999999998</c:v>
+                  <c:v>0.37072411799999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.61406088299999995</c:v>
+                  <c:v>0.38456706200000002</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.56838391499999996</c:v>
+                  <c:v>0.41236338299999997</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.55370847099999998</c:v>
+                  <c:v>0.330041262</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.61467158</c:v>
+                  <c:v>0.25750319799999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.61288647500000004</c:v>
+                  <c:v>0.29897601099999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.57325033000000003</c:v>
+                  <c:v>0.26118683300000001</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.55868780500000004</c:v>
+                  <c:v>0.30085748699999998</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.58533001299999998</c:v>
+                  <c:v>0.34592473400000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.55026396099999997</c:v>
+                  <c:v>0.31445618199999997</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.53043372</c:v>
+                  <c:v>0.35254593000000001</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.59457302199999995</c:v>
+                  <c:v>0.26039570299999998</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.53020177999999996</c:v>
+                  <c:v>0.29622284399999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.59501776100000003</c:v>
+                  <c:v>0.31078276900000001</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.48684887399999999</c:v>
+                  <c:v>0.34948137000000001</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.58751549599999997</c:v>
+                  <c:v>0.348590697</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.49782685900000001</c:v>
+                  <c:v>0.428682281</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.50492208199999999</c:v>
+                  <c:v>0.26626278799999997</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.55364924699999996</c:v>
+                  <c:v>0.39739940600000001</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.61562675499999997</c:v>
+                  <c:v>0.32170189999999999</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.61700237000000002</c:v>
+                  <c:v>0.334714766</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.55032242899999995</c:v>
+                  <c:v>0.34527557800000003</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.55265211400000003</c:v>
+                  <c:v>0.33899702700000001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.58061804100000003</c:v>
+                  <c:v>0.37521461099999998</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.55087505699999995</c:v>
+                  <c:v>0.36584160500000001</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.58108311899999998</c:v>
+                  <c:v>0.287865127</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.39946996099999998</c:v>
+                  <c:v>0.34373688899999999</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.55466344499999998</c:v>
+                  <c:v>0.35379922800000002</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.57424301899999997</c:v>
+                  <c:v>0.28049616399999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.512539631</c:v>
+                  <c:v>0.35530206600000003</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.485334708</c:v>
+                  <c:v>0.407152876</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.57892222299999996</c:v>
+                  <c:v>0.36193316599999997</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.49732652199999999</c:v>
+                  <c:v>0.312907718</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.57358352599999995</c:v>
+                  <c:v>0.314562811</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.58099563700000001</c:v>
+                  <c:v>0.37307109599999999</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.54370568799999996</c:v>
+                  <c:v>0.30545890599999997</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.54450663799999999</c:v>
+                  <c:v>0.30444217699999998</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.52786590799999999</c:v>
+                  <c:v>0.31579875699999999</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.57466746199999996</c:v>
+                  <c:v>0.29681204799999999</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.594340486</c:v>
+                  <c:v>0.363226257</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.56927069399999997</c:v>
+                  <c:v>0.45995750499999999</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.53657271600000001</c:v>
+                  <c:v>0.36829755600000003</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.46359962399999999</c:v>
+                  <c:v>0.37653716599999998</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.60660552499999998</c:v>
+                  <c:v>0.38031476800000003</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.57376634500000001</c:v>
+                  <c:v>0.37922277500000001</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.51599244600000005</c:v>
+                  <c:v>0.35303854099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,1639 +4010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F092-41CF-983B-BA6271CD9F35}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>rfe_benchmark_svr_av!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>rfe_benchmark_svr_av!$B$2:$B$261</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rfe_benchmark_svr_av!$D$2:$D$261</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="260"/>
-                <c:pt idx="0">
-                  <c:v>3.3962689999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.117875435</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.245177427</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24268520699999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28160481700000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.260123149</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24571362899999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21096100300000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.192022948</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.20062486500000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24002759900000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21314139900000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25537631100000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.247310167</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.26134323500000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.248553993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.24300359199999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.265948505</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.245373441</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24109636200000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26462301100000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27864615999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.26871572399999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.22684842099999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.245444353</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25221285599999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.323430249</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27355780800000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.31140456799999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.19253602</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31437804600000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.27971260799999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.31936493599999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.29187097200000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.26743409499999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.30697891700000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.29468812300000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.29522831100000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.322044471</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.31929063200000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.23769578299999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.30496607799999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.35671896400000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.26170633300000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.355859971</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.28784348300000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.34032003500000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.33189986999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.39913206299999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.35055810700000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.294104111</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.37969832599999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.36866469200000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.33629178399999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.348645023</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.34252379700000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.37788118900000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.35786102800000003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.34489321699999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.33288784799999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.31575746700000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.35584352200000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.36980656099999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.29186426399999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.31840909299999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.41662390500000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.37071928700000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.35720132199999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.359650568</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.37530978500000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.37254094599999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.39040454800000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.37501437799999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.343245525</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.28155908800000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.38485173900000003</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.346633001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.35892564799999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.386340348</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.37684830200000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.319579801</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.42062624500000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.40790969300000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.39303554499999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.38480535199999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.35687141</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.30652355799999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.434386194</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.38078137899999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.28226629199999997</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.35562944699999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.339884252</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.34763738799999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.30175238500000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.39969833799999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.395584775</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.38238023999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.34152693099999998</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.313248254</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.296913492</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.42202150900000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.32387027000000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.37584202900000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.32290556599999998</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.33870332800000003</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.35781608300000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.30878049400000002</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.40179376999999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.32673795900000002</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.243998826</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.30609624600000002</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.462638826</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.34710107899999998</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.31322609299999998</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.32896941699999999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.35329412799999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.35746886900000002</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.40980725499999998</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.34976618300000001</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.42061578500000002</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.37406131100000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.36780742999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.387843406</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.33811422299999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.36455020999999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.373039554</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.34581225599999998</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.38225177599999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.41722131600000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.33228242699999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.376767083</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.33721429600000002</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.44492071900000002</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.37892272999999999</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.30634312800000002</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.41063297500000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.33203823799999999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.28711980799999998</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.31961004300000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.36559418599999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.34522209700000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.32907667899999998</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.39014971100000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.36015821999999997</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.43505923200000002</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.43225578199999998</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.37996819399999998</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.34133222000000002</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.37196034300000003</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.35670828599999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.38813590100000001</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.38309122600000001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.34601417000000001</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.34976976399999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.38272380499999997</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.35783446499999999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.33669486500000001</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.37236334999999998</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.453760571</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.40795725599999999</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.352180141</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.30869903799999998</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.38892175600000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.34085704500000003</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.395570001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.32217027799999998</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.43334489700000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.397483009</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.367218814</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.37489155400000002</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.39722517899999998</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.333587564</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.36582366700000002</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.35346652299999998</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.304582666</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.32609943800000002</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.383344554</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.40007884799999999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.33834307000000002</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.35061352600000001</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.34189913500000002</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.36900266999999998</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.29614870100000001</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.35638968300000001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.38683689500000001</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.32610597200000002</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.38344613599999999</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.34679011999999998</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.29171259399999999</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.37054366799999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.30796337299999998</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.34859879300000002</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.38058134799999999</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.34074840299999998</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.2869178</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.32557091700000002</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.35808655299999997</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.32066937099999998</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.344757168</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.293156898</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.32505195199999998</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.33213048000000001</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.30843922499999998</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.38720962199999998</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.30456230899999998</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.33163256800000002</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.35448354399999998</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.27269838800000001</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.329787461</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.41486250699999999</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.32880832700000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.31868703799999998</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.30391341300000002</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.33852499000000003</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.37072411799999999</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.38456706200000002</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.41236338299999997</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.330041262</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.25750319799999999</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.29897601099999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.26118683300000001</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.30085748699999998</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.34592473400000001</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.31445618199999997</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.35254593000000001</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.26039570299999998</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.29622284399999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.31078276900000001</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.34948137000000001</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.348590697</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.428682281</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.26626278799999997</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.39739940600000001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.32170189999999999</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.334714766</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.34527557800000003</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.33899702700000001</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.37521461099999998</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.36584160500000001</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.287865127</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.34373688899999999</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.35379922800000002</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.28049616399999999</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.35530206600000003</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.407152876</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.36193316599999997</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.312907718</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.314562811</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.37307109599999999</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.30545890599999997</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.30444217699999998</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.31579875699999999</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.29681204799999999</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.363226257</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.45995750499999999</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.36829755600000003</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.37653716599999998</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.38031476800000003</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.37922277500000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.35303854099999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F092-41CF-983B-BA6271CD9F35}"/>
+              <c16:uniqueId val="{00000001-D7AC-4B05-A75F-7BDFB942FE29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3976,16 +4023,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="574104400"/>
-        <c:axId val="494872064"/>
+        <c:axId val="1497876975"/>
+        <c:axId val="1497866159"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574104400"/>
+        <c:axId val="1497876975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Use N of features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4020,10 +4122,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494872064"/>
+        <c:crossAx val="1497866159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4031,7 +4133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494872064"/>
+        <c:axId val="1497866159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,6 +4153,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4079,10 +4236,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574104400"/>
+        <c:crossAx val="1497876975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4121,7 +4278,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4151,7 +4308,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4722,23 +4879,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84042322-7D4A-4BFE-9850-481212C4E0D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF14CDBD-F3E4-41B0-95E0-B01DD7B3A223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,13 +5215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D261"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="J259" sqref="J259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5075,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5089,7 +5246,7 @@
         <v>3.3962689999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5103,7 +5260,7 @@
         <v>0.117875435</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5117,7 +5274,7 @@
         <v>0.245177427</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5131,7 +5288,7 @@
         <v>0.24268520699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5145,7 +5302,7 @@
         <v>0.28160481700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5159,7 +5316,7 @@
         <v>0.260123149</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5173,7 +5330,7 @@
         <v>0.24571362899999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5187,7 +5344,7 @@
         <v>0.21096100300000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5201,7 +5358,7 @@
         <v>0.192022948</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5215,7 +5372,7 @@
         <v>0.20062486500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5229,7 +5386,7 @@
         <v>0.24002759900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5243,7 +5400,7 @@
         <v>0.21314139900000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5257,7 +5414,7 @@
         <v>0.25537631100000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5271,7 +5428,7 @@
         <v>0.247310167</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5285,7 +5442,7 @@
         <v>0.26134323500000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5299,7 +5456,7 @@
         <v>0.248553993</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5313,7 +5470,7 @@
         <v>0.24300359199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5327,7 +5484,7 @@
         <v>0.265948505</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5341,7 +5498,7 @@
         <v>0.245373441</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5355,7 +5512,7 @@
         <v>0.24109636200000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5369,7 +5526,7 @@
         <v>0.26462301100000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5383,7 +5540,7 @@
         <v>0.27864615999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5397,7 +5554,7 @@
         <v>0.26871572399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5411,7 +5568,7 @@
         <v>0.22684842099999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5425,7 +5582,7 @@
         <v>0.245444353</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5439,7 +5596,7 @@
         <v>0.25221285599999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5453,7 +5610,7 @@
         <v>0.323430249</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5467,7 +5624,7 @@
         <v>0.27355780800000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5481,7 +5638,7 @@
         <v>0.31140456799999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5495,7 +5652,7 @@
         <v>0.19253602</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5509,7 +5666,7 @@
         <v>0.31437804600000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5523,7 +5680,7 @@
         <v>0.27971260799999997</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5537,7 +5694,7 @@
         <v>0.31936493599999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5551,7 +5708,7 @@
         <v>0.29187097200000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5565,7 +5722,7 @@
         <v>0.26743409499999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5579,7 +5736,7 @@
         <v>0.30697891700000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5593,7 +5750,7 @@
         <v>0.29468812300000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5607,7 +5764,7 @@
         <v>0.29522831100000002</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5621,7 +5778,7 @@
         <v>0.322044471</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5635,7 +5792,7 @@
         <v>0.31929063200000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5649,7 +5806,7 @@
         <v>0.23769578299999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5663,7 +5820,7 @@
         <v>0.30496607799999997</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5677,7 +5834,7 @@
         <v>0.35671896400000003</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5691,7 +5848,7 @@
         <v>0.26170633300000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5705,7 +5862,7 @@
         <v>0.355859971</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5719,7 +5876,7 @@
         <v>0.28784348300000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5733,7 +5890,7 @@
         <v>0.34032003500000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5747,7 +5904,7 @@
         <v>0.33189986999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5761,7 +5918,7 @@
         <v>0.39913206299999998</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5775,7 +5932,7 @@
         <v>0.35055810700000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5789,7 +5946,7 @@
         <v>0.294104111</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5803,7 +5960,7 @@
         <v>0.37969832599999997</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5817,7 +5974,7 @@
         <v>0.36866469200000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5831,7 +5988,7 @@
         <v>0.33629178399999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5845,7 +6002,7 @@
         <v>0.348645023</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5859,7 +6016,7 @@
         <v>0.34252379700000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5873,7 +6030,7 @@
         <v>0.37788118900000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5887,7 +6044,7 @@
         <v>0.35786102800000003</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5901,7 +6058,7 @@
         <v>0.34489321699999997</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5915,7 +6072,7 @@
         <v>0.33288784799999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5929,7 +6086,7 @@
         <v>0.31575746700000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5943,7 +6100,7 @@
         <v>0.35584352200000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5957,7 +6114,7 @@
         <v>0.36980656099999998</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5971,7 +6128,7 @@
         <v>0.29186426399999998</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5985,7 +6142,7 @@
         <v>0.31840909299999998</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5999,7 +6156,7 @@
         <v>0.41662390500000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6013,7 +6170,7 @@
         <v>0.37071928700000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6027,7 +6184,7 @@
         <v>0.35720132199999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6041,7 +6198,7 @@
         <v>0.359650568</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6055,7 +6212,7 @@
         <v>0.37530978500000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6069,7 +6226,7 @@
         <v>0.37254094599999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6083,7 +6240,7 @@
         <v>0.39040454800000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6097,7 +6254,7 @@
         <v>0.37501437799999998</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6111,7 +6268,7 @@
         <v>0.343245525</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6125,7 +6282,7 @@
         <v>0.28155908800000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6139,7 +6296,7 @@
         <v>0.38485173900000003</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6153,7 +6310,7 @@
         <v>0.346633001</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6167,7 +6324,7 @@
         <v>0.35892564799999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6181,7 +6338,7 @@
         <v>0.386340348</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6195,7 +6352,7 @@
         <v>0.37684830200000002</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6209,7 +6366,7 @@
         <v>0.319579801</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6223,7 +6380,7 @@
         <v>0.42062624500000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6237,7 +6394,7 @@
         <v>0.40790969300000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6251,7 +6408,7 @@
         <v>0.39303554499999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6265,7 +6422,7 @@
         <v>0.38480535199999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6279,7 +6436,7 @@
         <v>0.35687141</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6293,7 +6450,7 @@
         <v>0.30652355799999997</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6307,7 +6464,7 @@
         <v>0.434386194</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6321,7 +6478,7 @@
         <v>0.38078137899999998</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6335,7 +6492,7 @@
         <v>0.28226629199999997</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6349,7 +6506,7 @@
         <v>0.35562944699999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6363,7 +6520,7 @@
         <v>0.339884252</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6377,7 +6534,7 @@
         <v>0.34763738799999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6391,7 +6548,7 @@
         <v>0.30175238500000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6405,7 +6562,7 @@
         <v>0.39969833799999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6419,7 +6576,7 @@
         <v>0.395584775</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6433,7 +6590,7 @@
         <v>0.38238023999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6447,7 +6604,7 @@
         <v>0.34152693099999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6461,7 +6618,7 @@
         <v>0.313248254</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6475,7 +6632,7 @@
         <v>0.296913492</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6489,7 +6646,7 @@
         <v>0.42202150900000002</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6503,7 +6660,7 @@
         <v>0.32387027000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6517,7 +6674,7 @@
         <v>0.37584202900000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6531,7 +6688,7 @@
         <v>0.32290556599999998</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6545,7 +6702,7 @@
         <v>0.33870332800000003</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6559,7 +6716,7 @@
         <v>0.35781608300000001</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6573,7 +6730,7 @@
         <v>0.30878049400000002</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6587,7 +6744,7 @@
         <v>0.40179376999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6601,7 +6758,7 @@
         <v>0.32673795900000002</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6615,7 +6772,7 @@
         <v>0.243998826</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6629,7 +6786,7 @@
         <v>0.30609624600000002</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6643,7 +6800,7 @@
         <v>0.462638826</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6657,7 +6814,7 @@
         <v>0.34710107899999998</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6671,7 +6828,7 @@
         <v>0.31322609299999998</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6685,7 +6842,7 @@
         <v>0.32896941699999999</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6699,7 +6856,7 @@
         <v>0.35329412799999999</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6713,7 +6870,7 @@
         <v>0.35746886900000002</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6727,7 +6884,7 @@
         <v>0.40980725499999998</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6741,7 +6898,7 @@
         <v>0.34976618300000001</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6755,7 +6912,7 @@
         <v>0.42061578500000002</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6769,7 +6926,7 @@
         <v>0.37406131100000001</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6783,7 +6940,7 @@
         <v>0.36780742999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6797,7 +6954,7 @@
         <v>0.387843406</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6811,7 +6968,7 @@
         <v>0.33811422299999999</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6825,7 +6982,7 @@
         <v>0.36455020999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6839,7 +6996,7 @@
         <v>0.373039554</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6853,7 +7010,7 @@
         <v>0.34581225599999998</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6867,7 +7024,7 @@
         <v>0.38225177599999999</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6881,7 +7038,7 @@
         <v>0.41722131600000001</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6895,7 +7052,7 @@
         <v>0.33228242699999999</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6909,7 +7066,7 @@
         <v>0.376767083</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6923,7 +7080,7 @@
         <v>0.33721429600000002</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6937,7 +7094,7 @@
         <v>0.44492071900000002</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6951,7 +7108,7 @@
         <v>0.37892272999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6965,7 +7122,7 @@
         <v>0.30634312800000002</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6979,7 +7136,7 @@
         <v>0.41063297500000001</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6993,7 +7150,7 @@
         <v>0.33203823799999999</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7007,7 +7164,7 @@
         <v>0.28711980799999998</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7021,7 +7178,7 @@
         <v>0.31961004300000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7035,7 +7192,7 @@
         <v>0.36559418599999999</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7049,7 +7206,7 @@
         <v>0.34522209700000001</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7063,7 +7220,7 @@
         <v>0.32907667899999998</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7077,7 +7234,7 @@
         <v>0.39014971100000001</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7091,7 +7248,7 @@
         <v>0.36015821999999997</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7105,7 +7262,7 @@
         <v>0.43505923200000002</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7119,7 +7276,7 @@
         <v>0.43225578199999998</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7133,7 +7290,7 @@
         <v>0.37996819399999998</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7147,7 +7304,7 @@
         <v>0.34133222000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7161,7 +7318,7 @@
         <v>0.37196034300000003</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7175,7 +7332,7 @@
         <v>0.35670828599999999</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7189,7 +7346,7 @@
         <v>0.38813590100000001</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7203,7 +7360,7 @@
         <v>0.38309122600000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7217,7 +7374,7 @@
         <v>0.34601417000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7231,7 +7388,7 @@
         <v>0.34976976399999998</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7245,7 +7402,7 @@
         <v>0.38272380499999997</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7259,7 +7416,7 @@
         <v>0.35783446499999999</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7273,7 +7430,7 @@
         <v>0.33669486500000001</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7287,7 +7444,7 @@
         <v>0.37236334999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7301,7 +7458,7 @@
         <v>0.453760571</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7315,7 +7472,7 @@
         <v>0.40795725599999999</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7329,7 +7486,7 @@
         <v>0.352180141</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7343,7 +7500,7 @@
         <v>0.30869903799999998</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7357,7 +7514,7 @@
         <v>0.38892175600000001</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7371,7 +7528,7 @@
         <v>0.34085704500000003</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7385,7 +7542,7 @@
         <v>0.395570001</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7399,7 +7556,7 @@
         <v>0.32217027799999998</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7413,7 +7570,7 @@
         <v>0.43334489700000001</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7427,7 +7584,7 @@
         <v>0.397483009</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7441,7 +7598,7 @@
         <v>0.367218814</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7455,7 +7612,7 @@
         <v>0.37489155400000002</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7469,7 +7626,7 @@
         <v>0.39722517899999998</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7483,7 +7640,7 @@
         <v>0.333587564</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7497,7 +7654,7 @@
         <v>0.36582366700000002</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7511,7 +7668,7 @@
         <v>0.35346652299999998</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7525,7 +7682,7 @@
         <v>0.304582666</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7539,7 +7696,7 @@
         <v>0.32609943800000002</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7553,7 +7710,7 @@
         <v>0.383344554</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7567,7 +7724,7 @@
         <v>0.40007884799999999</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7581,7 +7738,7 @@
         <v>0.33834307000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7595,7 +7752,7 @@
         <v>0.35061352600000001</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7609,7 +7766,7 @@
         <v>0.34189913500000002</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7623,7 +7780,7 @@
         <v>0.36900266999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7637,7 +7794,7 @@
         <v>0.29614870100000001</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7651,7 +7808,7 @@
         <v>0.35638968300000001</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7665,7 +7822,7 @@
         <v>0.38683689500000001</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7679,7 +7836,7 @@
         <v>0.32610597200000002</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7693,7 +7850,7 @@
         <v>0.38344613599999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7707,7 +7864,7 @@
         <v>0.34679011999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7721,7 +7878,7 @@
         <v>0.29171259399999999</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7735,7 +7892,7 @@
         <v>0.37054366799999999</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7749,7 +7906,7 @@
         <v>0.30796337299999998</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7763,7 +7920,7 @@
         <v>0.34859879300000002</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7777,7 +7934,7 @@
         <v>0.38058134799999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7791,7 +7948,7 @@
         <v>0.34074840299999998</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7805,7 +7962,7 @@
         <v>0.2869178</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7819,7 +7976,7 @@
         <v>0.32557091700000002</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7833,7 +7990,7 @@
         <v>0.35808655299999997</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7847,7 +8004,7 @@
         <v>0.32066937099999998</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7861,7 +8018,7 @@
         <v>0.344757168</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7875,7 +8032,7 @@
         <v>0.293156898</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7889,7 +8046,7 @@
         <v>0.32505195199999998</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7903,7 +8060,7 @@
         <v>0.33213048000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7917,7 +8074,7 @@
         <v>0.30843922499999998</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -7931,7 +8088,7 @@
         <v>0.38720962199999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7945,7 +8102,7 @@
         <v>0.30456230899999998</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7959,7 +8116,7 @@
         <v>0.33163256800000002</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7973,7 +8130,7 @@
         <v>0.35448354399999998</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7987,7 +8144,7 @@
         <v>0.27269838800000001</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8001,7 +8158,7 @@
         <v>0.329787461</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8015,7 +8172,7 @@
         <v>0.41486250699999999</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8029,7 +8186,7 @@
         <v>0.32880832700000001</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8043,7 +8200,7 @@
         <v>0.31868703799999998</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8057,7 +8214,7 @@
         <v>0.30391341300000002</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8071,7 +8228,7 @@
         <v>0.33852499000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8085,7 +8242,7 @@
         <v>0.37072411799999999</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8099,7 +8256,7 @@
         <v>0.38456706200000002</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8113,7 +8270,7 @@
         <v>0.41236338299999997</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8127,7 +8284,7 @@
         <v>0.330041262</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8141,7 +8298,7 @@
         <v>0.25750319799999999</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8155,7 +8312,7 @@
         <v>0.29897601099999999</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8169,7 +8326,7 @@
         <v>0.26118683300000001</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8183,7 +8340,7 @@
         <v>0.30085748699999998</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8197,7 +8354,7 @@
         <v>0.34592473400000001</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8211,7 +8368,7 @@
         <v>0.31445618199999997</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8225,7 +8382,7 @@
         <v>0.35254593000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8239,7 +8396,7 @@
         <v>0.26039570299999998</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8253,7 +8410,7 @@
         <v>0.29622284399999999</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8267,7 +8424,7 @@
         <v>0.31078276900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8281,7 +8438,7 @@
         <v>0.34948137000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8295,7 +8452,7 @@
         <v>0.348590697</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8309,7 +8466,7 @@
         <v>0.428682281</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8323,7 +8480,7 @@
         <v>0.26626278799999997</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8337,7 +8494,7 @@
         <v>0.39739940600000001</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8351,7 +8508,7 @@
         <v>0.32170189999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8365,7 +8522,7 @@
         <v>0.334714766</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8379,7 +8536,7 @@
         <v>0.34527557800000003</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8393,7 +8550,7 @@
         <v>0.33899702700000001</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8407,7 +8564,7 @@
         <v>0.37521461099999998</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8421,7 +8578,7 @@
         <v>0.36584160500000001</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8435,7 +8592,7 @@
         <v>0.287865127</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -8449,7 +8606,7 @@
         <v>0.34373688899999999</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -8463,7 +8620,7 @@
         <v>0.35379922800000002</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -8477,7 +8634,7 @@
         <v>0.28049616399999999</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -8491,7 +8648,7 @@
         <v>0.35530206600000003</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -8505,7 +8662,7 @@
         <v>0.407152876</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8519,7 +8676,7 @@
         <v>0.36193316599999997</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8533,7 +8690,7 @@
         <v>0.312907718</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8547,7 +8704,7 @@
         <v>0.314562811</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8561,7 +8718,7 @@
         <v>0.37307109599999999</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8575,7 +8732,7 @@
         <v>0.30545890599999997</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8589,7 +8746,7 @@
         <v>0.30444217699999998</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8603,7 +8760,7 @@
         <v>0.31579875699999999</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8617,7 +8774,7 @@
         <v>0.29681204799999999</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8631,7 +8788,7 @@
         <v>0.363226257</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8645,7 +8802,7 @@
         <v>0.45995750499999999</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8659,7 +8816,7 @@
         <v>0.36829755600000003</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8673,7 +8830,7 @@
         <v>0.37653716599999998</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8687,7 +8844,7 @@
         <v>0.38031476800000003</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8701,7 +8858,7 @@
         <v>0.37922277500000001</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>

--- a/rfe_benchmark_svr_av.xlsx
+++ b/rfe_benchmark_svr_av.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\honours-project-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B020245-C4C8-4508-9A16-3A6F0CE3051B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81359D8-FD12-40E8-BA4E-A4D213DBAF46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -4880,15 +4880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>167095</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>49258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>289015</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="J259" sqref="J259"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8875,6 +8875,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>